--- a/vedios.xlsx
+++ b/vedios.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wsl\go\src\github.com\zboyco\bili-vedio-stat\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{527A3906-9A0E-4025-85BF-CCA3A87FED49}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowHeight="15840" windowWidth="29040" xWindow="-28920" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" relationships:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,8 +44,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,10 +63,16 @@
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill patternType="none">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor/>
+        <bgColor/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,16 +85,16 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="常规" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -368,21 +368,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="47"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="7.125"/>
+    <col bestFit="true" collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -401,7 +401,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup xmlns:relationships="http://schemas.openxmlformats.org/officeDocument/2006/relationships" relationships:id="rId1" orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
--- a/vedios.xlsx
+++ b/vedios.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,6 +39,9 @@
   <si>
     <t>视频链接(如:https://www.bilibili.com/video/av12523921)</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.bilibili.com/video/av12523921</t>
   </si>
 </sst>
 </file>
@@ -369,10 +372,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="true" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -399,6 +402,11 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>

--- a/vedios.xlsx
+++ b/vedios.xlsx
@@ -406,6 +406,18 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>12523921</v>
+      </c>
+      <c r="C2">
+        <v>9527</v>
+      </c>
+      <c r="D2">
+        <v>7588</v>
+      </c>
+      <c r="E2">
+        <v>3421</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
